--- a/NamedRangeTestApp/Data/testSet/test_calc.xlsx
+++ b/NamedRangeTestApp/Data/testSet/test_calc.xlsx
@@ -23,28 +23,28 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="dir_1">f_params!$E$4:$F$7</definedName>
-    <definedName name="dir1_atr1">f_params!$F$4:$F$7</definedName>
-    <definedName name="dir1_name">f_params!$E$4:$E$7</definedName>
-    <definedName name="dir2_atr1">f_params!$I$4:$I$12</definedName>
-    <definedName name="dir2_atr2">f_params!$J$4:$J$12</definedName>
-    <definedName name="dir2_name">f_params!$H$4:$H$12</definedName>
-    <definedName name="errors">errors!$C$3:$C$7</definedName>
-    <definedName name="f1_p1">f_params!$A$4:$A$31</definedName>
-    <definedName name="f1_p2">f_params!$B$4:$B$31</definedName>
-    <definedName name="f1_v1">f_params!$C$4:$C$31</definedName>
-    <definedName name="f2_p">f_params!$L$4:$L$9</definedName>
-    <definedName name="f2_v">f_params!$M$4:$M$9</definedName>
-    <definedName name="general_collumn_cells">general!$C$5:$C$10</definedName>
-    <definedName name="general_row_cells">general!$C$12:$G$12</definedName>
-    <definedName name="general_single_cell">general!$C$3</definedName>
-    <definedName name="general_table_cells">general!$C$14:$G$17</definedName>
-    <definedName name="in_collumn_cells">inputs!$C$5:$C$10</definedName>
-    <definedName name="in_row_cells">inputs!$C$12:$G$12</definedName>
-    <definedName name="in_single_cell">inputs!$C$3</definedName>
-    <definedName name="in_table_cells">inputs!$C$14:$G$17</definedName>
+    <definedName name="dir_1">'f_params'!$E$4:$F$7</definedName>
+    <definedName name="dir1_atr1">'f_params'!$F$4:$F$7</definedName>
+    <definedName name="dir1_name">'f_params'!$E$4:$E$7</definedName>
+    <definedName name="dir2_atr1">'f_params'!$I$4:$I$12</definedName>
+    <definedName name="dir2_atr2">'f_params'!$J$4:$J$12</definedName>
+    <definedName name="dir2_name">'f_params'!$H$4:$H$12</definedName>
+    <definedName name="errors">'errors'!$C$3:$C$7</definedName>
+    <definedName name="f1_p1">'f_params'!$A$4:$A$31</definedName>
+    <definedName name="f1_p2">'f_params'!$B$4:$B$31</definedName>
+    <definedName name="f1_v1">'f_params'!$C$4:$C$31</definedName>
+    <definedName name="f2_p">'f_params'!$L$4:$L$9</definedName>
+    <definedName name="f2_v">'f_params'!$M$4:$M$9</definedName>
+    <definedName name="general_collumn_cells">'general'!$C$5:$C$10</definedName>
+    <definedName name="general_row_cells">'general'!$C$12:$G$12</definedName>
+    <definedName name="general_single_cell">'general'!$C$3</definedName>
+    <definedName name="general_table_cells">'general'!$C$14:$G$17</definedName>
+    <definedName name="in_collumn_cells">'inputs'!$C$5:$C$10</definedName>
+    <definedName name="in_row_cells">'inputs'!$C$12:$G$12</definedName>
+    <definedName name="in_single_cell">'inputs'!$C$3</definedName>
+    <definedName name="in_table_cells">'inputs'!$C$14:$G$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,30 +64,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <si>
+    <t>Проверка обнолвния связей на другой файл</t>
+  </si>
+  <si>
+    <t>Подтяшгиваем значение одной ячейки из другого файла по именованному диапазону</t>
+  </si>
   <si>
     <t>general_single_cell</t>
   </si>
   <si>
+    <t>Подтягиваем вертикальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
+  </si>
+  <si>
     <t>general_collumn_cells</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Подтягиваем горизонтальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
+  </si>
+  <si>
     <t>general_row_cells</t>
   </si>
   <si>
+    <t>Подтягиваем табличный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
+  </si>
+  <si>
     <t>general_table_cells</t>
   </si>
   <si>
-    <t>Подтягиваем вертикальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
-  </si>
-  <si>
-    <t>Подтягиваем горизонтальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
-  </si>
-  <si>
-    <t>Подтягиваем табличный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
-  </si>
-  <si>
-    <t>Проверка обнолвния связей на другой файл</t>
+    <t>Диапазоны для ввода значений</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из одной ячейки</t>
+  </si>
+  <si>
+    <t>in_single_cell</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из вертикального диапазона</t>
+  </si>
+  <si>
+    <t>in_collumn_cells</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из строчного диапазона</t>
+  </si>
+  <si>
+    <t>in_row_cells</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из табличного диапазона</t>
+  </si>
+  <si>
+    <t>in_table_cells</t>
+  </si>
+  <si>
+    <t>Табличные параметры функции f1</t>
+  </si>
+  <si>
+    <t>Справочник 1</t>
+  </si>
+  <si>
+    <t>Справочник 2</t>
+  </si>
+  <si>
+    <t>Ступенчатая функция</t>
+  </si>
+  <si>
+    <t>Имя элемента</t>
+  </si>
+  <si>
+    <t>атрибут</t>
+  </si>
+  <si>
+    <t>имя элемента</t>
+  </si>
+  <si>
+    <t>другой атрибут</t>
+  </si>
+  <si>
+    <t>Граничные значения агрумента</t>
+  </si>
+  <si>
+    <t>Соответствующие значения функции</t>
+  </si>
+  <si>
+    <t>f1_p1</t>
+  </si>
+  <si>
+    <t>f1_p2</t>
+  </si>
+  <si>
+    <t>f1_v1</t>
+  </si>
+  <si>
+    <t>dir1_name</t>
+  </si>
+  <si>
+    <t>dir1_atr1</t>
+  </si>
+  <si>
+    <t>dir2_name</t>
+  </si>
+  <si>
+    <t>dir2_atr1</t>
+  </si>
+  <si>
+    <t>dir2_atr2</t>
+  </si>
+  <si>
+    <t>f2_p</t>
+  </si>
+  <si>
+    <t>f2_v</t>
+  </si>
+  <si>
+    <t>п1</t>
+  </si>
+  <si>
+    <t>Группа 1</t>
+  </si>
+  <si>
+    <t>Элемент 1</t>
+  </si>
+  <si>
+    <t>п2</t>
+  </si>
+  <si>
+    <t>Группа 2</t>
+  </si>
+  <si>
+    <t>Элемент 2</t>
+  </si>
+  <si>
+    <t>п3</t>
+  </si>
+  <si>
+    <t>Группа 3</t>
+  </si>
+  <si>
+    <t>Элемент 3</t>
+  </si>
+  <si>
+    <t>Группа 4</t>
+  </si>
+  <si>
+    <t>Элемент 4</t>
+  </si>
+  <si>
+    <t>Элемент 5</t>
+  </si>
+  <si>
+    <t>Элемент 6</t>
+  </si>
+  <si>
+    <t>Элемент 7</t>
+  </si>
+  <si>
+    <t>Элемент 8</t>
   </si>
   <si>
     <t>Проверка работы основных функций, используемых в моделях</t>
@@ -96,393 +234,274 @@
     <t>Простые операции</t>
   </si>
   <si>
+    <t>general_single_cell+in_single_cell</t>
+  </si>
+  <si>
+    <t>general_single_cell-in_single_cell</t>
+  </si>
+  <si>
     <t>general_single_cell*3,14</t>
   </si>
   <si>
     <t>general_single_cell/0,87</t>
   </si>
   <si>
+    <t>ОТБР</t>
+  </si>
+  <si>
+    <t>ОКРУГЛВВЕРХ</t>
+  </si>
+  <si>
+    <t>ОКРУГЛВНИЗ</t>
+  </si>
+  <si>
+    <t>ОКРУГЛ</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Логические</t>
+  </si>
+  <si>
+    <t>1&gt;0</t>
+  </si>
+  <si>
+    <t>1&lt;0</t>
+  </si>
+  <si>
+    <t>1=0</t>
+  </si>
+  <si>
+    <t>НЕ</t>
+  </si>
+  <si>
+    <t>ИЛИ</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>Математические</t>
+  </si>
+  <si>
+    <t>Степень</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Логарифм</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>СЛЧИС</t>
+  </si>
+  <si>
+    <t>Ч</t>
+  </si>
+  <si>
+    <t>ЧЗНАЧ</t>
+  </si>
+  <si>
+    <t>ЯЧЕЙКА</t>
+  </si>
+  <si>
     <t>Функция массива (вертикальная)</t>
   </si>
   <si>
+    <t xml:space="preserve">{general_collumn_cells+in_collumn_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
     <t>Функция массива (горизонтальная)</t>
   </si>
   <si>
+    <t xml:space="preserve">{general_row_cells+in_row_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <t>Функция массива (табличная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{general_table_cells+in_row_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{general_table_cells+in_table_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <t>Агрегирующие функции над массивами</t>
+  </si>
+  <si>
+    <t>СУММ</t>
+  </si>
+  <si>
+    <t>ПРОИЗВЕД</t>
+  </si>
+  <si>
+    <t>СУММПРОИЗВ</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>СРЗНАЧ</t>
+  </si>
+  <si>
+    <t>НАИБОЛЬШИЙ</t>
+  </si>
+  <si>
+    <t>НАИМЕНЬШИЙ</t>
+  </si>
+  <si>
+    <t>СЧЁТ</t>
+  </si>
+  <si>
+    <t>СЧЁТЗ</t>
+  </si>
+  <si>
+    <t>Аугреация с условиями</t>
+  </si>
+  <si>
+    <t>СУММЕСЛИ</t>
+  </si>
+  <si>
+    <t>СУММЕСЛИМН</t>
+  </si>
+  <si>
+    <t>СЧЁТЕСЛИ</t>
+  </si>
+  <si>
+    <t>СЧЁТЕСЛИМН</t>
+  </si>
+  <si>
+    <t>Прочие функции над массивами</t>
+  </si>
+  <si>
+    <t>ВПР</t>
+  </si>
+  <si>
+    <t>Расбота со строками</t>
+  </si>
+  <si>
+    <t>конкатенация</t>
+  </si>
+  <si>
+    <t>ПОДСТАВИТЬ</t>
+  </si>
+  <si>
+    <t>ПРАВСИМВ</t>
+  </si>
+  <si>
+    <t>ЛЕВСИМВ</t>
+  </si>
+  <si>
+    <t>НАЙТИ</t>
+  </si>
+  <si>
+    <t>Работа с массивами</t>
+  </si>
+  <si>
+    <t>ЧИСЛСТОЛБ</t>
+  </si>
+  <si>
+    <t>ЧСТРОК</t>
+  </si>
+  <si>
+    <t>ИНДЕКС</t>
+  </si>
+  <si>
+    <t>ПОИСКПОЗ</t>
+  </si>
+  <si>
+    <t>СМЕЩ</t>
+  </si>
+  <si>
+    <t>Прочие используемые</t>
+  </si>
+  <si>
+    <t>ДВССЫЛ</t>
+  </si>
+  <si>
+    <t>СТРОКА</t>
+  </si>
+  <si>
+    <t>СТОЛБЕЦ</t>
+  </si>
+  <si>
     <t>Проверка обработки ошибок</t>
   </si>
   <si>
+    <t>Результат с ошибкой</t>
+  </si>
+  <si>
+    <t>Проверочные функции</t>
+  </si>
+  <si>
+    <t>ПРОВЕРКА</t>
+  </si>
+  <si>
+    <t>ЕСЛИОШИБКА</t>
+  </si>
+  <si>
+    <t>ЕОШ</t>
+  </si>
+  <si>
+    <t>ЕНД</t>
+  </si>
+  <si>
+    <t>ЕПУСТО</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>ошибка найдена</t>
+  </si>
+  <si>
+    <t>#ДЕЛ/0!</t>
+  </si>
+  <si>
+    <t>#DIV/0!</t>
+  </si>
+  <si>
     <t>#ЗНАЧ!</t>
   </si>
   <si>
-    <t>#ДЕЛ/0!</t>
+    <t>#VALUE!</t>
   </si>
   <si>
     <t>#ССЫЛКА!</t>
   </si>
   <si>
+    <t>#REF!</t>
+  </si>
+  <si>
     <t>#ИМЯ?</t>
   </si>
   <si>
-    <t>in_single_cell</t>
-  </si>
-  <si>
-    <t>in_collumn_cells</t>
-  </si>
-  <si>
-    <t>in_row_cells</t>
-  </si>
-  <si>
-    <t>Диапазоны для ввода значений</t>
-  </si>
-  <si>
-    <t>in_table_cells</t>
-  </si>
-  <si>
-    <t>Подтяшгиваем значение одной ячейки из другого файла по именованному диапазону</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из одной ячейки</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из строчного диапазона</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из вертикального диапазона</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из табличного диапазона</t>
-  </si>
-  <si>
-    <t>general_single_cell+in_single_cell</t>
-  </si>
-  <si>
-    <t>general_single_cell-in_single_cell</t>
-  </si>
-  <si>
-    <t>{general_collumn_cells+in_collumn_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>{general_row_cells+in_row_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>{general_table_cells+in_row_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>{general_table_cells+in_table_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>Функция массива (табличная)</t>
-  </si>
-  <si>
-    <t>Табличные параметры функции f1</t>
-  </si>
-  <si>
-    <t>f1_p1</t>
-  </si>
-  <si>
-    <t>f1_p2</t>
-  </si>
-  <si>
-    <t>f1_v1</t>
-  </si>
-  <si>
-    <t>Справочник 1</t>
-  </si>
-  <si>
-    <t>Справочник 2</t>
-  </si>
-  <si>
-    <t>атрибут</t>
-  </si>
-  <si>
-    <t>dir1_name</t>
-  </si>
-  <si>
-    <t>dir1_atr1</t>
-  </si>
-  <si>
-    <t>dir2_name</t>
-  </si>
-  <si>
-    <t>dir2_atr1</t>
-  </si>
-  <si>
-    <t>dir2_atr2</t>
-  </si>
-  <si>
-    <t>Имя элемента</t>
-  </si>
-  <si>
-    <t>другой атрибут</t>
-  </si>
-  <si>
-    <t>Элемент 1</t>
-  </si>
-  <si>
-    <t>Элемент 2</t>
-  </si>
-  <si>
-    <t>Элемент 3</t>
-  </si>
-  <si>
-    <t>Элемент 4</t>
-  </si>
-  <si>
-    <t>Элемент 5</t>
-  </si>
-  <si>
-    <t>Элемент 6</t>
-  </si>
-  <si>
-    <t>Элемент 7</t>
-  </si>
-  <si>
-    <t>Элемент 8</t>
-  </si>
-  <si>
-    <t>Группа 1</t>
-  </si>
-  <si>
-    <t>Группа 2</t>
-  </si>
-  <si>
-    <t>Группа 3</t>
-  </si>
-  <si>
-    <t>Группа 4</t>
-  </si>
-  <si>
-    <t>Математические</t>
-  </si>
-  <si>
-    <t>Степень</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>LN</t>
-  </si>
-  <si>
-    <t>Логарифм</t>
-  </si>
-  <si>
-    <t>СУММ</t>
-  </si>
-  <si>
-    <t>СУММЕСЛИ</t>
-  </si>
-  <si>
-    <t>СУММЕСЛИМН</t>
-  </si>
-  <si>
-    <t>МАКС</t>
-  </si>
-  <si>
-    <t>МИН</t>
-  </si>
-  <si>
-    <t>ОТБР</t>
-  </si>
-  <si>
-    <t>ОКРУГЛВВЕРХ</t>
-  </si>
-  <si>
-    <t>ОКРУГЛ</t>
-  </si>
-  <si>
-    <t>СЧЁТ</t>
-  </si>
-  <si>
-    <t>СЧЁТЕСЛИМН</t>
-  </si>
-  <si>
-    <t>СЧЁТЕСЛИ</t>
-  </si>
-  <si>
-    <t>СУММПРОИЗВ</t>
-  </si>
-  <si>
-    <t>ЕСЛИОШИБКА</t>
-  </si>
-  <si>
-    <t>ЕОШ</t>
-  </si>
-  <si>
-    <t>ЕНД</t>
-  </si>
-  <si>
-    <t>ЕПУСТО</t>
-  </si>
-  <si>
-    <t>СРЗНАЧ</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>Ч</t>
-  </si>
-  <si>
-    <t>1&gt;0</t>
-  </si>
-  <si>
-    <t>1&lt;0</t>
-  </si>
-  <si>
-    <t>1=0</t>
-  </si>
-  <si>
-    <t>СЛЧИС</t>
-  </si>
-  <si>
-    <t>ИНДЕКС</t>
-  </si>
-  <si>
-    <t>ПОИСКПОЗ</t>
-  </si>
-  <si>
-    <t>ПРОИЗВЕД</t>
-  </si>
-  <si>
-    <t>СМЕЩ</t>
-  </si>
-  <si>
-    <t>ЧИСЛСТОЛБ</t>
-  </si>
-  <si>
-    <t>ЧСТРОК</t>
-  </si>
-  <si>
-    <t>ДВССЫЛ</t>
-  </si>
-  <si>
-    <t>НЕ</t>
-  </si>
-  <si>
-    <t>ИЛИ</t>
-  </si>
-  <si>
-    <t>И</t>
-  </si>
-  <si>
-    <t>СТРОКА</t>
-  </si>
-  <si>
-    <t>СТОЛБЕЦ</t>
-  </si>
-  <si>
-    <t>НАИБОЛЬШИЙ</t>
-  </si>
-  <si>
-    <t>НАИМЕНЬШИЙ</t>
-  </si>
-  <si>
-    <t>ЧЗНАЧ</t>
-  </si>
-  <si>
-    <t>ПОДСТАВИТЬ</t>
-  </si>
-  <si>
-    <t>ПРАВСИМВ</t>
-  </si>
-  <si>
-    <t>ЛЕВСИМВ</t>
-  </si>
-  <si>
-    <t>ЯЧЕЙКА</t>
-  </si>
-  <si>
-    <t>НАЙТИ</t>
-  </si>
-  <si>
-    <t>ОКРУГЛВНИЗ</t>
-  </si>
-  <si>
-    <t>СЧЁТЗ</t>
-  </si>
-  <si>
-    <t>значение  без ошибки</t>
-  </si>
-  <si>
-    <t>Проверочные функции</t>
-  </si>
-  <si>
-    <t>Результат с ошибкой</t>
-  </si>
-  <si>
-    <t>ошибка найдена</t>
-  </si>
-  <si>
-    <t>ПРОВЕРКА</t>
-  </si>
-  <si>
-    <t>п1</t>
-  </si>
-  <si>
-    <t>п2</t>
-  </si>
-  <si>
-    <t>п3</t>
-  </si>
-  <si>
-    <t>Агрегирующие функции над массивами</t>
-  </si>
-  <si>
-    <t>Аугреация с условиями</t>
-  </si>
-  <si>
-    <t>Прочие функции над массивами</t>
-  </si>
-  <si>
-    <t>ВПР</t>
-  </si>
-  <si>
-    <t>Работа с массивами</t>
-  </si>
-  <si>
-    <t>Прочее</t>
-  </si>
-  <si>
-    <t>Расбота со строками</t>
-  </si>
-  <si>
-    <t>конкатенация</t>
-  </si>
-  <si>
-    <t>Логические</t>
-  </si>
-  <si>
-    <t>Прочие используемые</t>
-  </si>
-  <si>
-    <t>Ступенчатая функция</t>
-  </si>
-  <si>
-    <t>имя элемента</t>
-  </si>
-  <si>
-    <t>f2_p</t>
-  </si>
-  <si>
-    <t>f2_v</t>
-  </si>
-  <si>
-    <t>Граничные значения агрумента</t>
-  </si>
-  <si>
-    <t>Соответствующие значения функции</t>
+    <t>#NAME?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">значение  без ошибки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,7 +515,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,20 +524,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -946,261 +956,261 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="28" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,94 +1636,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1" style="13"/>
+    <col min="2" max="2" width="27" customWidth="1" style="1"/>
+    <col min="3" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="30">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="e">
         <f>[1]!general_single_cell</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="array" ref="C5:C10">IF(ISBLANK([1]!general_collumn_cells),"",[1]!general_collumn_cells)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="e">
+        <f ref="C5:C10" t="array">IF(ISBLANK([1]!general_collumn_cells),"",[1]!general_collumn_cells)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="62"/>
       <c r="B6" s="61"/>
-      <c r="C6" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="62"/>
       <c r="B7" s="61"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="62"/>
       <c r="B8" s="61"/>
       <c r="C8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="62"/>
       <c r="B9" s="61"/>
       <c r="C9" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="15.75">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.75">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="30.75">
       <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="e">
+        <f ref="C12:G12" t="array">IF(ISBLANK([1]!general_row_cells),"",[1]!general_row_cells)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="array" ref="C12:G12">IF(ISBLANK([1]!general_row_cells),"",[1]!general_row_cells)</f>
-        <v>8</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <v/>
       </c>
       <c r="E12" s="10">
         <v>10</v>
@@ -1725,17 +1735,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75"/>
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14">
-        <f t="array" ref="C14:G17">IF(ISBLANK([1]!general_table_cells),"",[1]!general_table_cells)</f>
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="e">
+        <f ref="C14:G17" t="array">IF(ISBLANK([1]!general_table_cells),"",[1]!general_table_cells)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D14" s="15">
         <v>14</v>
@@ -1750,7 +1760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="17">
@@ -1759,8 +1769,8 @@
       <c r="D15" s="3">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="str">
-        <v/>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>21</v>
@@ -1769,7 +1779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="62"/>
       <c r="B16" s="61"/>
       <c r="C16" s="17">
@@ -1788,7 +1798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.75">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="19">
@@ -1808,14 +1818,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1833,9 +1844,9 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1844,7 +1855,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1853,12 +1864,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" ht="30">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" s="37">
         <v>1</v>
@@ -1868,7 +1879,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
@@ -1877,12 +1888,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="62" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="37">
         <v>5</v>
@@ -1892,7 +1903,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="62"/>
       <c r="B6" s="61"/>
       <c r="C6" s="37">
@@ -1903,7 +1914,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="62"/>
       <c r="B7" s="61"/>
       <c r="C7" s="37">
@@ -1914,7 +1925,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="62"/>
       <c r="B8" s="61"/>
       <c r="C8" s="37">
@@ -1925,7 +1936,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="62"/>
       <c r="B9" s="61"/>
       <c r="C9" s="37">
@@ -1936,7 +1947,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="37">
@@ -1947,7 +1958,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="13"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
@@ -1956,12 +1967,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" ht="30">
       <c r="A12" s="12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="37">
         <v>9</v>
@@ -1979,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1988,12 +1999,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="63" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" s="37">
         <v>1</v>
@@ -2011,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="64"/>
       <c r="B15" s="61"/>
       <c r="C15" s="37">
@@ -2030,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="64"/>
       <c r="B16" s="61"/>
       <c r="C16" s="37">
@@ -2049,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="65"/>
       <c r="B17" s="61"/>
       <c r="C17" s="37">
@@ -2068,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2078,13 +2089,14 @@
       <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2098,117 +2110,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="13" width="24.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15" customWidth="1" style="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1" style="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
+    <col min="8" max="10" width="24" customWidth="1" style="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1" style="1"/>
+    <col min="12" max="13" width="24.85546875" customWidth="1" style="1"/>
+    <col min="14" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="39" customHeight="1">
       <c r="A1" s="66" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
       <c r="E1" s="66" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F1" s="66"/>
       <c r="H1" s="66" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="L1" s="66" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="39" customHeight="1">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="E2" s="49" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="L2" s="49" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="M3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="48" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>117</v>
-      </c>
       <c r="B4" s="37">
         <v>1</v>
       </c>
       <c r="C4" s="37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F4" s="37">
         <v>1000</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J4" s="37">
         <v>4556</v>
@@ -2220,9 +2232,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="37" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B5" s="37">
         <v>1</v>
@@ -2231,16 +2243,16 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F5" s="37">
         <v>2000</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J5" s="37">
         <v>3</v>
@@ -2252,9 +2264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="37" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B6" s="37">
         <v>1</v>
@@ -2263,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F6" s="37">
         <v>3000</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J6" s="37">
         <v>44</v>
@@ -2284,9 +2296,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="37" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B7" s="37">
         <v>2</v>
@@ -2295,16 +2307,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F7" s="37">
         <v>4000</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J7" s="37">
         <v>354</v>
@@ -2316,9 +2328,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="37" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B8" s="37">
         <v>2</v>
@@ -2327,10 +2339,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J8" s="37">
         <v>4</v>
@@ -2342,9 +2354,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="37" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B9" s="37">
         <v>2</v>
@@ -2353,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J9" s="37">
         <v>34</v>
@@ -2368,9 +2380,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="37" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B10" s="37">
         <v>3</v>
@@ -2379,18 +2391,18 @@
         <v>91</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J10" s="37">
         <v>653</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="37" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B11" s="37">
         <v>3</v>
@@ -2399,18 +2411,18 @@
         <v>92</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J11" s="37">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="37" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B12" s="37">
         <v>3</v>
@@ -2422,103 +2434,103 @@
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:F1"/>
@@ -2526,7 +2538,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2540,115 +2553,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" style="1"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" ht="30">
       <c r="A1" s="23" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="63" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="31">
+        <v>56</v>
+      </c>
+      <c r="C3" s="31" t="e">
         <f>general_single_cell+in_single_cell</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="64"/>
       <c r="B4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="31">
+        <v>57</v>
+      </c>
+      <c r="C4" s="31" t="e">
         <f>general_single_cell-in_single_cell</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="64"/>
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C5" s="31">
         <f>general_single_cell*3.14</f>
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="64"/>
       <c r="B6" s="26" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C6" s="31">
         <f>general_single_cell/0.87</f>
-        <v>1.1494252873563218</v>
+        <v>0</v>
       </c>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="64"/>
       <c r="B7" s="26" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C7" s="31">
         <f>TRUNC(C6,1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="64"/>
       <c r="B8" s="26" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C8" s="31">
         <f>ROUNDUP(C6,1)</f>
-        <v>1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="64"/>
       <c r="B9" s="26" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C9" s="31">
         <f>ROUNDDOWN(C7,1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="64"/>
       <c r="B10" s="26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C10" s="31">
         <f>ROUND(C6,5)</f>
-        <v>1.14943</v>
+        <v>0</v>
       </c>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="64"/>
       <c r="B11" s="26" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C11" s="31">
         <f>ABS(-1.24)</f>
@@ -2656,24 +2669,24 @@
       </c>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="64"/>
       <c r="B12" s="59"/>
       <c r="C12" s="31"/>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="65"/>
       <c r="B13" s="26"/>
       <c r="C13" s="31"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="63" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C14" s="31" t="b">
         <f>1&gt;0</f>
@@ -2681,10 +2694,10 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="64"/>
       <c r="B15" s="26" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C15" s="31" t="b">
         <f>1&lt;0</f>
@@ -2692,10 +2705,10 @@
       </c>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="64"/>
       <c r="B16" s="26" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C16" s="31" t="b">
         <f>1=0</f>
@@ -2703,186 +2716,186 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="64"/>
       <c r="B17" s="27" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C17" s="38" t="b">
         <f>NOT(1=0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="64"/>
       <c r="B18" s="27" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C18" s="38" t="b">
         <f>OR(1=0,1&gt;0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="65"/>
       <c r="B19" s="27" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C19" s="38" t="b">
         <f>AND(1=0,1&gt;0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="62" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C20" s="31">
         <f>12^2</f>
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="62"/>
       <c r="B21" s="27" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C21" s="31">
         <f>EXP(12)</f>
         <v>162754.79141900392</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="62"/>
       <c r="B22" s="27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C22" s="31">
         <f>LOG(C20,12)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="62"/>
       <c r="B23" s="27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C23" s="31">
         <f>LN(C21)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="72" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C24" s="31">
-        <f ca="1">RAND()</f>
-        <v>0.60019389446269122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <f>RAND()</f>
+        <v>0.42976122602343614</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="73"/>
       <c r="B25" s="27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" s="31">
         <f>N(1&gt;0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="73"/>
       <c r="B26" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="38">
+        <v>80</v>
+      </c>
+      <c r="C26" s="38" t="e">
         <f>_xlfn.NUMBERVALUE("1 000,35",","," ")</f>
-        <v>1000.35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="73"/>
       <c r="B27" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="60" t="str">
-        <f ca="1">CELL("filename")</f>
-        <v>C:\Users\Evgeny\Desktop\[test_calc.xlsx]funcions</v>
+        <v>81</v>
+      </c>
+      <c r="C27" s="60" t="e">
+        <f>CELL("filename")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="57"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="15.75">
       <c r="A28" s="50"/>
       <c r="B28" s="13"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="62" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="28">
-        <f t="array" ref="C29:C34">IF(general_collumn_cells="",0,general_collumn_cells)+in_collumn_cells</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C29" s="28" t="e">
+        <f ref="C29:C34" t="array">IF(general_collumn_cells="",0,general_collumn_cells)+in_collumn_cells</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="62"/>
       <c r="B30" s="78"/>
       <c r="C30" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="62"/>
       <c r="B31" s="78"/>
       <c r="C31" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="62"/>
       <c r="B32" s="78"/>
       <c r="C32" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="62"/>
       <c r="B33" s="78"/>
       <c r="C33" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="15.75">
       <c r="A34" s="62"/>
       <c r="B34" s="79"/>
       <c r="C34" s="30">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="30.75">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="32">
-        <f t="array" ref="C36:G36">IF(general_row_cells="",0,general_row_cells)+in_row_cells</f>
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="C36" s="32" t="e">
+        <f ref="C36:G36" t="array">IF(general_row_cells="",0,general_row_cells)+in_row_cells</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D36" s="33">
         <v>8</v>
@@ -2897,19 +2910,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.75">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="63" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="39">
-        <f t="array" ref="C38:G41">IF(general_table_cells="",0,general_table_cells)+in_row_cells</f>
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="C38" s="39" t="e">
+        <f ref="C38:G41" t="array">IF(general_table_cells="",0,general_table_cells)+in_row_cells</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D38" s="40">
         <v>22</v>
@@ -2924,7 +2937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="64"/>
       <c r="B39" s="75"/>
       <c r="C39" s="42">
@@ -2943,7 +2956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="64"/>
       <c r="B40" s="75"/>
       <c r="C40" s="42">
@@ -2962,7 +2975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="15.75">
       <c r="A41" s="64"/>
       <c r="B41" s="76"/>
       <c r="C41" s="44">
@@ -2981,14 +2994,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="64"/>
       <c r="B42" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="39">
-        <f t="array" ref="C42:G45">IF(general_table_cells="",0,general_table_cells)+in_table_cells</f>
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="C42" s="39" t="e">
+        <f ref="C42:G45" t="array">IF(general_table_cells="",0,general_table_cells)+in_table_cells</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D42" s="40">
         <v>15</v>
@@ -3003,7 +3016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="64"/>
       <c r="B43" s="75"/>
       <c r="C43" s="42">
@@ -3022,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="64"/>
       <c r="B44" s="75"/>
       <c r="C44" s="42">
@@ -3041,7 +3054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.75">
       <c r="A45" s="65"/>
       <c r="B45" s="76"/>
       <c r="C45" s="44">
@@ -3060,253 +3073,253 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="67" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C47" s="38">
         <f>SUM(in_row_cells)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="68"/>
       <c r="B48" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="38">
         <f>PRODUCT(in_row_cells)</f>
         <v>15120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="68"/>
       <c r="B49" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="38">
+        <v>92</v>
+      </c>
+      <c r="C49" s="38" t="e">
         <f>SUMPRODUCT(in_row_cells,general_row_cells)</f>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="68"/>
       <c r="B50" s="27" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C50" s="38">
         <f>MAX(in_row_cells)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="68"/>
       <c r="B51" s="27" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C51" s="38">
         <f>MIN(in_row_cells)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="68"/>
       <c r="B52" s="27" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C52" s="38">
         <f>AVERAGE(in_row_cells)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="68"/>
       <c r="B53" s="27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C53" s="38">
         <f>SMALL(in_row_cells,2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="68"/>
       <c r="B54" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C54" s="38">
         <f>LARGE(in_row_cells,2)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="68"/>
       <c r="B55" s="27" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C55" s="38">
         <f>COUNT(general_row_cells)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="69"/>
       <c r="B56" s="27" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C56" s="38">
         <f>COUNTA(general_row_cells)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="67" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C57" s="38">
         <f>SUMIF(f1_p1,"п1",f1_v1)</f>
         <v>93.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="68"/>
       <c r="B58" s="27" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C58" s="38">
         <f>SUMIFS(f1_v1,f1_p1,"п1",f1_p2,"&gt;1")</f>
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="68"/>
       <c r="B59" s="27" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C59" s="38">
         <f>COUNTIF(f1_p1,"п1")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="69"/>
       <c r="B60" s="27" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C60" s="38">
         <f>COUNTIFS(f1_p1,"п1",f1_p2,"&gt;1")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="27" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C61" s="38">
         <f>VLOOKUP("Группа 3",dir_1,2,FALSE)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="67.5" customHeight="1">
       <c r="A63" s="70" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C63" s="38" t="str">
         <f>"начало строки "&amp;"середина"&amp;" конец строки"</f>
         <v>начало строки середина конец строки</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="67.5" customHeight="1">
       <c r="A64" s="70"/>
       <c r="B64" s="27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C64" s="38" t="str">
         <f>SUBSTITUTE("а1б1в1г1д1е1","1","")</f>
         <v>абвгде</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="67.5" customHeight="1">
       <c r="A65" s="70"/>
       <c r="B65" s="27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C65" s="38" t="str">
         <f>RIGHT("абвгд",3)</f>
         <v>вгд</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="70"/>
       <c r="B66" s="27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C66" s="38" t="str">
         <f>LEFT("абвгд",3)</f>
         <v>абв</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="70"/>
       <c r="B67" s="27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C67" s="38">
         <f>FIND("а","1234а67890иииаиии",10)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="71" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C69" s="38">
         <f>COLUMNS(in_table_cells)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="71"/>
       <c r="B70" s="27" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C70" s="38">
         <f>ROWS(in_table_cells)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="71"/>
       <c r="B71" s="27" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C71" s="38">
         <f>INDEX(general_table_cells,2,2)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="71"/>
       <c r="B72" s="27" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C72" s="38">
         <f>MATCH(D72,f2_p,1)</f>
@@ -3316,50 +3329,45 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="71"/>
       <c r="B73" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="58">
-        <f t="array" aca="1" ref="C73:E74" ca="1">OFFSET(general_table_cells,1,1,2,3)</f>
-        <v>19</v>
-      </c>
-      <c r="D73" s="38" t="str">
-        <f ca="1"/>
-        <v/>
+        <v>118</v>
+      </c>
+      <c r="C73" s="58" t="e">
+        <f ref="C73:E74" t="array">OFFSET(general_table_cells,1,1,2,3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="E73" s="38">
-        <f ca="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="71"/>
       <c r="B74" s="71"/>
       <c r="C74" s="58">
-        <f ca="1"/>
         <v>24</v>
       </c>
       <c r="D74" s="38">
-        <f ca="1"/>
         <v>25</v>
       </c>
       <c r="E74" s="38">
-        <f ca="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="67" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="38" t="str">
-        <f ca="1">INDEX(INDIRECT("f"&amp;D76&amp;"_p"&amp;E76),1,1)</f>
-        <v>п1</v>
+        <v>120</v>
+      </c>
+      <c r="C76" s="38" t="e">
+        <f>INDEX(INDIRECT("f"&amp;D76&amp;"_p"&amp;E76),1,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D76" s="56">
         <v>1</v>
@@ -3368,20 +3376,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="68"/>
       <c r="B77" s="27" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C77" s="38">
         <f>ROW()</f>
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="69"/>
       <c r="B78" s="27" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C78" s="38">
         <f>COLUMN()</f>
@@ -3389,7 +3397,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A69:A74"/>
@@ -3407,6 +3415,7 @@
     <mergeCell ref="A14:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3420,87 +3429,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="47" customWidth="1"/>
-    <col min="4" max="7" width="23.28515625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="47"/>
-    <col min="9" max="13" width="24.140625" style="47" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1" style="47"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" style="47"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1" style="47"/>
+    <col min="4" max="7" width="23.28515625" customWidth="1" style="47"/>
+    <col min="8" max="8" width="9.140625" customWidth="1" style="47"/>
+    <col min="9" max="13" width="24.140625" customWidth="1" style="47"/>
+    <col min="14" max="16384" width="9.140625" customWidth="1" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="27" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="83" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="85" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="84"/>
       <c r="D2" s="53" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="H2" s="85"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="M2" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C3" s="51" t="e">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="51">
         <f>MATCH("Точно отсутствующее значение",general_row_cells,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54">
         <f>IFERROR(C3,"ошибка найдена")</f>
-        <v>ошибка найдена</v>
+        <v>0</v>
       </c>
       <c r="E3" s="54" t="b">
         <f>ISERR(C3)</f>
@@ -3508,18 +3517,18 @@
       </c>
       <c r="F3" s="54" t="b">
         <f>ISNA(C3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="54" t="b">
         <f>ISBLANK(C3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="85"/>
-      <c r="I3" s="52" t="e">
-        <v>#N/A</v>
+      <c r="I3" s="52" t="s">
+        <v>131</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K3" s="52" t="b">
         <v>0</v>
@@ -3531,37 +3540,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="81"/>
       <c r="B4" s="36" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C4" s="51" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D4" s="54" t="str">
-        <f t="shared" ref="D4:D8" si="0">IFERROR(C4,"ошибка найдена")</f>
+        <f ref="D4:D8" t="shared" si="0">IFERROR(C4,"ошибка найдена")</f>
         <v>ошибка найдена</v>
       </c>
       <c r="E4" s="54" t="b">
-        <f t="shared" ref="E4:E8" si="1">ISERR(C4)</f>
+        <f ref="E4:E8" t="shared" si="1">ISERR(C4)</f>
         <v>1</v>
       </c>
       <c r="F4" s="54" t="b">
-        <f t="shared" ref="F4:F8" si="2">ISNA(C4)</f>
+        <f ref="F4:F8" t="shared" si="2">ISNA(C4)</f>
         <v>0</v>
       </c>
       <c r="G4" s="54" t="b">
-        <f t="shared" ref="G4:G9" si="3">ISBLANK(C4)</f>
+        <f ref="G4:G9" t="shared" si="3">ISBLANK(C4)</f>
         <v>0</v>
       </c>
       <c r="H4" s="85"/>
-      <c r="I4" s="52" t="e">
-        <v>#DIV/0!</v>
+      <c r="I4" s="52" t="s">
+        <v>134</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K4" s="52" t="b">
         <v>1</v>
@@ -3573,22 +3582,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="81"/>
       <c r="B5" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="51" t="e">
+        <v>135</v>
+      </c>
+      <c r="C5" s="51">
         <f>VALUE("")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54">
         <f t="shared" si="0"/>
-        <v>ошибка найдена</v>
+        <v>0</v>
       </c>
       <c r="E5" s="54" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="54" t="b">
         <f t="shared" si="2"/>
@@ -3599,11 +3608,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="85"/>
-      <c r="I5" s="52" t="e">
-        <v>#VALUE!</v>
+      <c r="I5" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K5" s="52" t="b">
         <v>1</v>
@@ -3615,10 +3624,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="81"/>
       <c r="B6" s="36" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C6" s="51" t="e">
         <f>INDEX(general_row_cells,99)</f>
@@ -3641,11 +3650,11 @@
         <v>0</v>
       </c>
       <c r="H6" s="85"/>
-      <c r="I6" s="52" t="e">
-        <v>#REF!</v>
+      <c r="I6" s="52" t="s">
+        <v>138</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K6" s="52" t="b">
         <v>1</v>
@@ -3657,10 +3666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="82"/>
       <c r="B7" s="36" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="C7" s="51" t="e">
         <f>unexist_name</f>
@@ -3683,11 +3692,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="85"/>
-      <c r="I7" s="52" t="e">
-        <v>#NAME?</v>
+      <c r="I7" s="52" t="s">
+        <v>140</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K7" s="52" t="b">
         <v>1</v>
@@ -3699,9 +3708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="C8" s="55" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D8" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3721,10 +3730,10 @@
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="52" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K8" s="52" t="b">
         <v>0</v>
@@ -3736,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="G9" s="54" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3751,12 +3760,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="H1:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>